--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_kita\github\git_ver.2\asp.net_core_ver.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524B82E1-37CF-4E6B-B00A-8285E42D95C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +25,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +79,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF06E3C0-0E03-4710-B97E-0E75BB09212B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3932465" y="1197429"/>
+          <a:ext cx="1170214" cy="612321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 磁気ディスク 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66F8DC1-0A4B-4974-897B-9438A17528C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5442857" y="979714"/>
+          <a:ext cx="1986643" cy="1074964"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 磁気ディスク 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EC8EF3-16C9-4711-88C4-88755CDFADE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1360714" y="979714"/>
+          <a:ext cx="1986643" cy="1074964"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +528,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>